--- a/images/20190220/actions.xlsx
+++ b/images/20190220/actions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="115">
   <si>
     <t>方向</t>
     <rPh sb="0" eb="1">
@@ -1500,6 +1500,60 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织建设</t>
+    <rPh sb="0" eb="1">
+      <t>zu'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian'she</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司稳定性FT</t>
+    <rPh sb="0" eb="1">
+      <t>gong'si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen'ding'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务线抽出人力和各方组件稳定性FT，运维建立全局FT</t>
+    <rPh sb="0" eb="1">
+      <t>ye'wu'xian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chou'chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren'li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>he</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ge'fang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zu'jian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wen'ding'xing</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yun'wei</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>jian'li</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>quan'ju</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1552,17 +1606,17 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1841,10 +1895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F7:J49"/>
+  <dimension ref="F7:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1855,309 +1909,307 @@
   <sheetData>
     <row r="7" spans="6:10" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="6:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F10" s="4"/>
+      <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>6</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I10" t="s">
         <v>7</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-      <c r="H10" t="s">
+    <row r="11" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" t="s">
         <v>11</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" t="s">
         <v>9</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
-      <c r="H11" t="s">
+    <row r="12" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>73</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
-      <c r="H12" t="s">
+    <row r="13" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" t="s">
         <v>15</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s">
         <v>74</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
-      <c r="H13" t="s">
+    <row r="14" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" t="s">
         <v>16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F14" s="1"/>
-      <c r="G14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s">
-        <v>20</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
       </c>
       <c r="J14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F15" s="4"/>
+      <c r="G15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
-      <c r="H15" t="s">
+    <row r="16" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="H16" t="s">
         <v>21</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I16" t="s">
         <v>75</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
-      <c r="H16" t="s">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" t="s">
         <v>22</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>76</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F17" s="1"/>
-      <c r="G17" t="s">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F18" s="4"/>
+      <c r="G18" t="s">
         <v>26</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>27</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I18" t="s">
         <v>78</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F18" s="1"/>
-      <c r="G18" t="s">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F19" s="4"/>
+      <c r="G19" t="s">
         <v>30</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>28</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I19" t="s">
         <v>77</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F19" s="1"/>
-      <c r="G19" s="2" t="s">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F20" s="4"/>
+      <c r="G20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>31</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I20" t="s">
         <v>76</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F20" s="1"/>
-      <c r="G20" s="2"/>
-      <c r="H20" t="s">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" t="s">
         <v>32</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I21" t="s">
         <v>73</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F21" s="1"/>
-      <c r="G21" s="2"/>
-      <c r="H21" t="s">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" t="s">
         <v>41</v>
-      </c>
-      <c r="I21" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
-      <c r="H22" t="s">
-        <v>57</v>
       </c>
       <c r="I22" t="s">
         <v>79</v>
       </c>
       <c r="J22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F23" s="1"/>
-      <c r="G23" s="2" t="s">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F24" s="4"/>
+      <c r="G24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H24" t="s">
         <v>92</v>
-      </c>
-      <c r="I23" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F24" s="1"/>
-      <c r="G24" s="2"/>
-      <c r="H24" t="s">
-        <v>36</v>
       </c>
       <c r="I24" t="s">
         <v>80</v>
       </c>
       <c r="J24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F25" s="1"/>
-      <c r="G25" s="2" t="s">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F26" s="4"/>
+      <c r="G26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H26" t="s">
         <v>38</v>
-      </c>
-      <c r="I25" t="s">
-        <v>81</v>
-      </c>
-      <c r="J25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F26" s="1"/>
-      <c r="G26" s="2"/>
-      <c r="H26" t="s">
-        <v>39</v>
       </c>
       <c r="I26" t="s">
         <v>81</v>
       </c>
       <c r="J26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F27" s="1"/>
-      <c r="G27" s="2"/>
-      <c r="H27" t="s">
+    <row r="28" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" t="s">
         <v>33</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I28" t="s">
         <v>80</v>
-      </c>
-      <c r="J27" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F28" s="1"/>
-      <c r="G28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" t="s">
-        <v>82</v>
       </c>
       <c r="J28" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>46</v>
+      <c r="F29" s="4"/>
+      <c r="G29" t="s">
+        <v>43</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I29" t="s">
         <v>82</v>
@@ -2167,23 +2219,27 @@
       </c>
     </row>
     <row r="30" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F30" s="1"/>
-      <c r="G30" s="2"/>
+      <c r="F30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F31" s="1"/>
-      <c r="G31" s="2"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I31" t="s">
         <v>73</v>
@@ -2193,10 +2249,10 @@
       </c>
     </row>
     <row r="32" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F32" s="1"/>
-      <c r="G32" s="2"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s">
         <v>73</v>
@@ -2206,10 +2262,10 @@
       </c>
     </row>
     <row r="33" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F33" s="1"/>
-      <c r="G33" s="2"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
         <v>73</v>
@@ -2219,10 +2275,10 @@
       </c>
     </row>
     <row r="34" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F34" s="1"/>
-      <c r="G34" s="2"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3"/>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s">
         <v>73</v>
@@ -2232,233 +2288,246 @@
       </c>
     </row>
     <row r="35" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="4"/>
+      <c r="G35" s="3"/>
+      <c r="H35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" t="s">
+        <v>73</v>
+      </c>
+      <c r="J35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G36" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H36" t="s">
         <v>56</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I36" t="s">
         <v>83</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J36" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F36" s="1"/>
-      <c r="G36" s="2"/>
-      <c r="H36" t="s">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
+      <c r="H37" t="s">
         <v>55</v>
-      </c>
-      <c r="I36" t="s">
-        <v>84</v>
-      </c>
-      <c r="J36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F37" s="1"/>
-      <c r="G37" s="2"/>
-      <c r="H37" t="s">
-        <v>58</v>
       </c>
       <c r="I37" t="s">
         <v>84</v>
       </c>
       <c r="J37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F38" s="1"/>
-      <c r="G38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3"/>
       <c r="H38" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I38" t="s">
         <v>84</v>
       </c>
       <c r="J38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F39" s="4"/>
+      <c r="G39" s="3"/>
+      <c r="H39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J39" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F39" s="1"/>
-      <c r="G39" s="2"/>
-      <c r="H39" t="s">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F40" s="4"/>
+      <c r="G40" s="3"/>
+      <c r="H40" t="s">
         <v>99</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I40" t="s">
         <v>75</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J40" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F40" s="1"/>
-      <c r="G40" s="2"/>
-      <c r="H40" t="s">
+    <row r="41" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F41" s="4"/>
+      <c r="G41" s="3"/>
+      <c r="H41" t="s">
         <v>42</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I41" t="s">
         <v>85</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J41" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F41" s="1"/>
-      <c r="G41" s="2" t="s">
+    <row r="42" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F42" s="4"/>
+      <c r="G42" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H42" t="s">
         <v>61</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I42" t="s">
         <v>12</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F42" s="1"/>
-      <c r="G42" s="2"/>
-      <c r="H42" t="s">
+    <row r="43" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F43" s="4"/>
+      <c r="G43" s="3"/>
+      <c r="H43" t="s">
         <v>60</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I43" t="s">
         <v>75</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F43" s="1" t="s">
+    <row r="44" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F44" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G44" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H44" t="s">
         <v>71</v>
-      </c>
-      <c r="I43" t="s">
-        <v>73</v>
-      </c>
-      <c r="J43" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F44" s="1"/>
-      <c r="G44" s="2"/>
-      <c r="H44" t="s">
-        <v>64</v>
       </c>
       <c r="I44" t="s">
         <v>73</v>
       </c>
       <c r="J44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F45" s="4"/>
+      <c r="G45" s="3"/>
+      <c r="H45" t="s">
+        <v>64</v>
+      </c>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+      <c r="J45" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F45" s="1"/>
-      <c r="G45" s="2"/>
-      <c r="H45" t="s">
+    <row r="46" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F46" s="4"/>
+      <c r="G46" s="3"/>
+      <c r="H46" t="s">
         <v>65</v>
-      </c>
-      <c r="I45" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F46" s="1"/>
-      <c r="G46" s="2"/>
-      <c r="H46" t="s">
-        <v>66</v>
       </c>
       <c r="I46" t="s">
         <v>12</v>
       </c>
       <c r="J46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F47" s="4"/>
+      <c r="G47" s="3"/>
+      <c r="H47" t="s">
+        <v>66</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F47" s="1"/>
-      <c r="G47" t="s">
+    <row r="48" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F48" s="4"/>
+      <c r="G48" t="s">
         <v>67</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H48" t="s">
         <v>67</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I48" t="s">
         <v>79</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J48" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F48" s="1" t="s">
+    <row r="49" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F49" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H49" t="s">
         <v>69</v>
-      </c>
-      <c r="I48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F49" s="1"/>
-      <c r="G49" s="2"/>
-      <c r="H49" t="s">
-        <v>70</v>
       </c>
       <c r="I49" t="s">
         <v>12</v>
       </c>
       <c r="J49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F50" s="4"/>
+      <c r="G50" s="3"/>
+      <c r="H50" t="s">
+        <v>70</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G29:G34"/>
-    <mergeCell ref="G35:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="F9:F28"/>
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="F35:F42"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="F9:F29"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="F36:F43"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="G36:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="G49:G50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/images/20190220/actions.xlsx
+++ b/images/20190220/actions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="120">
   <si>
     <t>方向</t>
     <rPh sb="0" eb="1">
@@ -756,16 +756,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>快速扩容</t>
-    <rPh sb="0" eb="1">
-      <t>kuai'su</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kuo'rong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>业务限流</t>
     <rPh sb="0" eb="1">
       <t>ye'wu</t>
@@ -1553,6 +1543,78 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>quan'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键重启</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chong'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键回滚</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui'gun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准的、快速的服务重启方式</t>
+    <rPh sb="0" eb="1">
+      <t>bia'zhun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kuai'su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fu'wu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chong'qi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fang'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准的、快速的服务回滚方式</t>
+    <rPh sb="0" eb="1">
+      <t>biao'zhun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hui'gun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键扩容</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kuo'rong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1895,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F7:J50"/>
+  <dimension ref="F7:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="81" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1922,7 +1984,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="6:10" x14ac:dyDescent="0.2">
@@ -1930,16 +1992,16 @@
         <v>4</v>
       </c>
       <c r="G9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" t="s">
         <v>112</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" t="s">
         <v>113</v>
-      </c>
-      <c r="I9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="10" spans="6:10" x14ac:dyDescent="0.2">
@@ -1977,7 +2039,7 @@
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
@@ -1990,7 +2052,7 @@
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
@@ -2031,7 +2093,7 @@
         <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s">
         <v>24</v>
@@ -2044,7 +2106,7 @@
         <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s">
         <v>25</v>
@@ -2059,10 +2121,10 @@
         <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.2">
@@ -2074,7 +2136,7 @@
         <v>28</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s">
         <v>29</v>
@@ -2089,10 +2151,10 @@
         <v>31</v>
       </c>
       <c r="I20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.2">
@@ -2102,10 +2164,10 @@
         <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.2">
@@ -2115,10 +2177,10 @@
         <v>41</v>
       </c>
       <c r="I22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.2">
@@ -2128,10 +2190,10 @@
         <v>57</v>
       </c>
       <c r="I23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="6:10" x14ac:dyDescent="0.2">
@@ -2140,13 +2202,13 @@
         <v>35</v>
       </c>
       <c r="H24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" t="s">
         <v>92</v>
-      </c>
-      <c r="I24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J24" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="25" spans="6:10" x14ac:dyDescent="0.2">
@@ -2156,10 +2218,10 @@
         <v>36</v>
       </c>
       <c r="I25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="6:10" x14ac:dyDescent="0.2">
@@ -2171,10 +2233,10 @@
         <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="6:10" x14ac:dyDescent="0.2">
@@ -2184,10 +2246,10 @@
         <v>39</v>
       </c>
       <c r="I27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="6:10" x14ac:dyDescent="0.2">
@@ -2197,10 +2259,10 @@
         <v>33</v>
       </c>
       <c r="I28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="6:10" x14ac:dyDescent="0.2">
@@ -2212,10 +2274,10 @@
         <v>44</v>
       </c>
       <c r="I29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="6:10" x14ac:dyDescent="0.2">
@@ -2229,10 +2291,10 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="6:10" x14ac:dyDescent="0.2">
@@ -2242,10 +2304,10 @@
         <v>50</v>
       </c>
       <c r="I31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="6:10" x14ac:dyDescent="0.2">
@@ -2255,10 +2317,10 @@
         <v>49</v>
       </c>
       <c r="I32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="6:10" x14ac:dyDescent="0.2">
@@ -2268,10 +2330,10 @@
         <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="6:10" x14ac:dyDescent="0.2">
@@ -2281,23 +2343,23 @@
         <v>51</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
       <c r="H35" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" t="s">
         <v>72</v>
       </c>
-      <c r="I35" t="s">
-        <v>73</v>
-      </c>
       <c r="J35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="6:10" x14ac:dyDescent="0.2">
@@ -2311,10 +2373,10 @@
         <v>56</v>
       </c>
       <c r="I36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="6:10" x14ac:dyDescent="0.2">
@@ -2324,10 +2386,10 @@
         <v>55</v>
       </c>
       <c r="I37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="6:10" x14ac:dyDescent="0.2">
@@ -2337,10 +2399,10 @@
         <v>58</v>
       </c>
       <c r="I38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="6:10" x14ac:dyDescent="0.2">
@@ -2350,23 +2412,23 @@
         <v>52</v>
       </c>
       <c r="I39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F40" s="4"/>
       <c r="G40" s="3"/>
       <c r="H40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="6:10" x14ac:dyDescent="0.2">
@@ -2376,10 +2438,10 @@
         <v>42</v>
       </c>
       <c r="I41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="6:10" x14ac:dyDescent="0.2">
@@ -2394,7 +2456,7 @@
         <v>12</v>
       </c>
       <c r="J42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="6:10" x14ac:dyDescent="0.2">
@@ -2404,10 +2466,10 @@
         <v>60</v>
       </c>
       <c r="I43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="6:10" x14ac:dyDescent="0.2">
@@ -2418,97 +2480,123 @@
         <v>63</v>
       </c>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="I44" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="J44" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F45" s="4"/>
       <c r="G45" s="3"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="I45" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F46" s="4"/>
       <c r="G46" s="3"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I46" t="s">
         <v>12</v>
       </c>
       <c r="J46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F47" s="4"/>
       <c r="G47" s="3"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I47" t="s">
         <v>12</v>
       </c>
       <c r="J47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F48" s="4"/>
-      <c r="G48" t="s">
-        <v>67</v>
-      </c>
+      <c r="G48" s="3"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="I48" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J48" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F49" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="3"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I49" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="J49" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F50" s="4"/>
-      <c r="G50" s="3"/>
+      <c r="G50" t="s">
+        <v>66</v>
+      </c>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I50" t="s">
+        <v>78</v>
+      </c>
+      <c r="J50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F51" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" t="s">
+        <v>68</v>
+      </c>
+      <c r="I51" t="s">
         <v>12</v>
       </c>
-      <c r="J50" t="s">
-        <v>109</v>
+      <c r="J51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F52" s="4"/>
+      <c r="G52" s="3"/>
+      <c r="H52" t="s">
+        <v>69</v>
+      </c>
+      <c r="I52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2521,13 +2609,13 @@
     <mergeCell ref="F9:F29"/>
     <mergeCell ref="F30:F35"/>
     <mergeCell ref="F36:F43"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F44:F50"/>
+    <mergeCell ref="F51:F52"/>
     <mergeCell ref="G30:G35"/>
     <mergeCell ref="G36:G41"/>
     <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G44:G49"/>
+    <mergeCell ref="G51:G52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/images/20190220/actions.xlsx
+++ b/images/20190220/actions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
   <si>
     <t>方向</t>
     <rPh sb="0" eb="1">
@@ -1515,6 +1515,57 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>bao'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司战略</t>
+    <rPh sb="0" eb="1">
+      <t>gong'si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhan'lue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司领导层建立稳定性工作规划, 对稳定性足够重视</t>
+    <rPh sb="0" eb="1">
+      <t>gong'si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ling'dao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cegn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian'li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen'ding'xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gui'hua</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wen'ding'xing</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zu'gou</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zhong'shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1857,10 +1908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F7:J46"/>
+  <dimension ref="F7:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1895,299 +1946,299 @@
         <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="I9" t="s">
         <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F11" s="4"/>
-      <c r="G11" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="G11" s="3"/>
       <c r="H11" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="I11" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="J11" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F13" s="4"/>
       <c r="G13" s="3"/>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F14" s="4"/>
       <c r="G14" s="3"/>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F15" s="4"/>
       <c r="G15" s="3"/>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F16" s="4"/>
-      <c r="G16" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="G16" s="3"/>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F18" s="4"/>
       <c r="G18" s="3"/>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F19" s="4"/>
-      <c r="G19" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="G19" s="3"/>
       <c r="H19" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="J19" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="J20" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F21" s="4"/>
       <c r="G21" s="3"/>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I21" t="s">
         <v>64</v>
       </c>
       <c r="J21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F22" s="4"/>
       <c r="G22" s="3"/>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J22" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F23" s="4"/>
-      <c r="G23" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="G23" s="3"/>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J23" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24" t="s">
         <v>66</v>
       </c>
       <c r="J24" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
       <c r="H25" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J25" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="I26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J26" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F27" s="4"/>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
+      <c r="G27" s="3"/>
       <c r="H27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I27" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J27" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F28" s="4"/>
       <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F29" s="4"/>
+      <c r="G29" t="s">
         <v>29</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H29" t="s">
         <v>27</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" t="s">
         <v>62</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F29" s="4" t="s">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>41</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I30" t="s">
         <v>67</v>
-      </c>
-      <c r="J29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" t="s">
-        <v>58</v>
       </c>
       <c r="J30" t="s">
         <v>88</v>
@@ -2197,7 +2248,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
       <c r="H31" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="I31" t="s">
         <v>58</v>
@@ -2210,7 +2261,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="I32" t="s">
         <v>58</v>
@@ -2220,220 +2271,233 @@
       </c>
     </row>
     <row r="33" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
+      <c r="H33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H34" t="s">
         <v>102</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I34" t="s">
         <v>68</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J34" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F34" s="4"/>
-      <c r="G34" s="3"/>
-      <c r="H34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I34" t="s">
-        <v>60</v>
-      </c>
-      <c r="J34" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="35" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
       <c r="H35" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J35" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
       <c r="H36" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="I36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F37" s="4"/>
-      <c r="G37" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="G37" s="3"/>
       <c r="H37" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="I37" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="J37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F38" s="4"/>
-      <c r="G38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H38" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F39" s="4"/>
+      <c r="G39" s="3"/>
+      <c r="H39" t="s">
         <v>47</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I39" t="s">
         <v>60</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F39" s="4" t="s">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F40" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H40" t="s">
         <v>92</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I40" t="s">
         <v>91</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J40" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F40" s="4"/>
-      <c r="G40" s="3"/>
-      <c r="H40" t="s">
-        <v>93</v>
-      </c>
-      <c r="I40" t="s">
-        <v>63</v>
-      </c>
-      <c r="J40" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="41" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F41" s="4"/>
       <c r="G41" s="3"/>
       <c r="H41" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="I41" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="J41" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F42" s="4"/>
       <c r="G42" s="3"/>
       <c r="H42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I42" t="s">
         <v>12</v>
       </c>
       <c r="J42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F43" s="4"/>
       <c r="G43" s="3"/>
       <c r="H43" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I43" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="J43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F44" s="4"/>
-      <c r="G44" t="s">
+      <c r="G44" s="3"/>
+      <c r="H44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" t="s">
+        <v>58</v>
+      </c>
+      <c r="J44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F45" s="4"/>
+      <c r="G45" t="s">
         <v>52</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H45" t="s">
         <v>52</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I45" t="s">
         <v>64</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J45" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F45" s="4" t="s">
+    <row r="46" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H46" t="s">
         <v>54</v>
-      </c>
-      <c r="I45" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F46" s="4"/>
-      <c r="G46" s="3"/>
-      <c r="H46" t="s">
-        <v>55</v>
       </c>
       <c r="I46" t="s">
         <v>12</v>
       </c>
       <c r="J46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F47" s="4"/>
+      <c r="G47" s="3"/>
+      <c r="H47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="F9:F28"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="F33:F38"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="F9:F29"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="F34:F39"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="G38:G39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/images/20190220/actions.xlsx
+++ b/images/20190220/actions.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niean/work/code/go/src/github.com.open/niean/niean.github.io/images/20190220/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niean/blog/niean.github.io/images/20190220/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1533,15 +1536,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司领导层建立稳定性工作规划, 对稳定性足够重视</t>
+    <t>公司战略层建立稳定性工作规划, 对稳定性足够重视</t>
     <rPh sb="0" eb="1">
       <t>gong'si</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>ling'dao</t>
+      <t>zhan'lue</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>cegn</t>
+      <t>ceng</t>
     </rPh>
     <rPh sb="5" eb="6">
       <t>jian'li</t>
@@ -1911,7 +1914,7 @@
   <dimension ref="F7:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/images/20190220/actions.xlsx
+++ b/images/20190220/actions.xlsx
@@ -1913,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F7:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
